--- a/results/Gear/gear_types.xlsx
+++ b/results/Gear/gear_types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\Thesis\Logbook Data\Logbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\ORnearshore_groundfish\results\Gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B9E02A-3C51-40FA-A6BE-20633A1C599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2DAEAF-9BC8-4D8C-BF6D-527E5D087D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{01368165-25A4-429C-9ED4-2AFD6F846151}"/>
   </bookViews>
@@ -142,20 +142,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Changes in Gear Type</a:t>
             </a:r>
           </a:p>
@@ -174,14 +171,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -439,12 +433,9 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
@@ -471,12 +462,9 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
@@ -509,12 +497,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -544,7 +529,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -555,12 +545,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -598,12 +585,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -617,14 +601,11 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -634,8 +615,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        <a:defRPr baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -1530,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773CCD37-13B1-4F66-8777-2FA19D163986}">
   <dimension ref="A2:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
